--- a/jx_managent/src/main/resources/static/temp/test.xlsx
+++ b/jx_managent/src/main/resources/static/temp/test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chufe\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{814AC990-8BB3-4343-BFF3-A5B43ED2875D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C572D49-F3FA-4963-8024-20A25A092EB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>已退款退货</t>
   </si>
@@ -78,6 +78,14 @@
   </si>
   <si>
     <t>销售时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退款金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -404,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -415,12 +423,12 @@
     <col min="1" max="1" width="29" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" customWidth="1"/>
-    <col min="4" max="6" width="22.77734375" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" customWidth="1"/>
-    <col min="8" max="8" width="33.33203125" customWidth="1"/>
+    <col min="4" max="8" width="22.77734375" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
+    <col min="10" max="10" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -434,19 +442,25 @@
         <v>8</v>
       </c>
       <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>12</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -459,20 +473,26 @@
       <c r="D2">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>43665</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -485,16 +505,22 @@
       <c r="D3">
         <v>30</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>3</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>43665</v>
       </c>
     </row>
